--- a/TPBasicauth.xlsx
+++ b/TPBasicauth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4229140-91B3-47DB-BB68-C381069A918C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CA9EC9-9552-40BA-9792-8CFF651482DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
@@ -154,7 +154,7 @@
     <t>Configuration Saved success message should be displayed</t>
   </si>
   <si>
-    <t>Aprroved</t>
+    <t>Approved</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
